--- a/medicine/Enfance/Philip_Reeve/Philip_Reeve.xlsx
+++ b/medicine/Enfance/Philip_Reeve/Philip_Reeve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip Reeve, né le 28 février 1966 est un écrivain et illustrateur britannique. Il est spécialisé dans les romans de science-fiction et les livres pour enfants. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,128 +553,491 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Univers Tom et Hester
-Série Tom et Hester
-Mécaniques fatales, Hachette Jeunesse, 2003 ((en) Mortal Engines, 2001)Réédition, Gallimard Jeunesse, coll. « Folio Junior », 2007
+          <t>Univers Tom et Hester</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Tom et Hester</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mécaniques fatales, Hachette Jeunesse, 2003 ((en) Mortal Engines, 2001)Réédition, Gallimard Jeunesse, coll. « Folio Junior », 2007
 L'Or du prédateur, Gallimard Jeunesse, coll. « Folio Junior », 2007 ((en) Predator's Gold, 2003)
 Machinations infernales, Gallimard Jeunesse, coll. « Folio Junior », 2009 ((en) Infernal Devices, 2005)
 Plaine obscure, Gallimard Jeunesse, coll. « Folio Junior », 2010 ((en) A Darkling Plain, 2006)
 (en) Traction City (en), 2011Roman court, préquelle à la série
-(en) Night Flights, 2018Recueil de trois courtes histoires sur les aventures d'Anna Fang, préquelle à la série
-Série Fever Crumb
-(en) Fever Crumb (en), 2009
+(en) Night Flights, 2018Recueil de trois courtes histoires sur les aventures d'Anna Fang, préquelle à la série</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Univers Tom et Hester</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Fever Crumb</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Fever Crumb (en), 2009
 (en) A Web of Air (en), 2010
-(en) Scrivener's Moon (en), 2011
-Série Buster Bayliss
-(en) Night of the Living Veg, 2002
+(en) Scrivener's Moon (en), 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Buster Bayliss</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Night of the Living Veg, 2002
 (en) The Big Freeze, 2002
 (en) Day of the Hamster, 2002
-(en) Custardfinger!, 2003
-Série Planète Larklight
-Planète Larklight, Gallimard Jeunesse, 2007 ((en) Larklight, 2006)
+(en) Custardfinger!, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Planète Larklight</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Planète Larklight, Gallimard Jeunesse, 2007 ((en) Larklight, 2006)
 L'Hôtel étrange, Gallimard Jeunesse, 2008 ((en) Starcross, 2007)
-(en) Mothstorm, 2008
-Série Goblins
-(en) Goblins, 2012
+(en) Mothstorm, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Goblins</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Goblins, 2012
 (en) Goblins vs Dwarves, 2013
-(en) Goblin Quest, 2014
-Série Railhead
-(en) Railhead, 2015
+(en) Goblin Quest, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Railhead</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(en) Railhead, 2015
 (en) Black Light Express, 2016
-(en) Station Zero, 2018
-Série Nuit noire
-Fille des dérelantes, Gallimard Jeunesse, 2024 ((en) Utterly Dark and the Face of the Deep, 2021), trad. Luc Rigoureau, 320 p.  (ISBN 978-2-07-516834-2)
+(en) Station Zero, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Nuit noire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fille des dérelantes, Gallimard Jeunesse, 2024 ((en) Utterly Dark and the Face of the Deep, 2021), trad. Luc Rigoureau, 320 p.  (ISBN 978-2-07-516834-2)
 (en) Utterly Dark and the Heart of the Wild, 2022
-(en) Utterly Dark and the Tides of Time, 2023
-Romans indépendants
-(en) Horatio Nelson and His Victory, 2003
+(en) Utterly Dark and the Tides of Time, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) Horatio Nelson and His Victory, 2003
 Arthur, l'autre légende, Gallimard Jeunesse, coll. « Scripto », 2008 ((en) Here Lies Arthur, 2007)
-Qui a peur des dragons ?, Gallimard Jeunesse, coll. « Folio Junior », 2013 ((en) No Such Thing As Dragons, 2009)
-Livres pour enfants
-Livres illustrés
-Ces livres ont été illustrés par Sarah McIntyre (en).
+Qui a peur des dragons ?, Gallimard Jeunesse, coll. « Folio Junior », 2013 ((en) No Such Thing As Dragons, 2009)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ces livres ont été illustrés par Sarah McIntyre (en).
 Oliver et les Îles vagabondes, Seuil, 2014 ((en) Oliver and the Seawigs, 2013)
 Astra et les Gâteaux de l'espace, Seuil, 2014 ((en) Cakes in Space, 2014)
 264 papattes sur la banquise, Seuil, 2015 ((en) Pugs of the Frozen North, 2015)
-(en) Jinks &amp; O'Hare Funfair Repair, 2016
-Série La Légende de Maurice
-Ces livres ont été illustrés par Sarah McIntyre (en).
+(en) Jinks &amp; O'Hare Funfair Repair, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Livres pour enfants</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Série La Légende de Maurice</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ces livres ont été illustrés par Sarah McIntyre (en).
 Le Poney volant, Little Urban, 2021 ((en) The Legend of Kevin, 2018), trad. Emmanuel Gros, 153 p.  (ISBN 978-2-37408-189-2)
 La Grande Évasion, Little Urban, 2021 ((en) Kevin's Great Escape, 2019), trad. Emmanuel Gros, 154 p.  (ISBN 978-2-37408-139-7)
 Poney volant en cavale, Little Urban, 2022 ((en) Kevin and the Biscuit Bandit, 2020), trad. Emmanuel Gros, 158 p.  (ISBN 978-2-37408-172-4)
-Poney vs. licornes, Little Urban, 2022 ((en) Kevin vs the Unicorns, 2021), trad. Emmanuel Gros, 150 p.  (ISBN 978-2-37408-694-1)
-Nouvelles
-Doctor Who : Les Racines de Mal ((en) Doctor Who: The Roots of Evil, 2013)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Philip_Reeve</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Poney vs. licornes, Little Urban, 2022 ((en) Kevin vs the Unicorns, 2021), trad. Emmanuel Gros, 150 p.  (ISBN 978-2-37408-694-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Doctor Who : Les Racines de Mal ((en) Doctor Who: The Roots of Evil, 2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Sélection Prix Locus du meilleur roman pour jeunes adultes 2004 pour L'Or du prédateur (Predator's Gold)
 Sélection Prix Locus du meilleur roman pour jeunes adultes 2007 pour Plaine obscure (A Darkling Plain))
 Los Angeles Times Book Prize 2007, catégorie Littérature pour la jeunesse, pour Plaine obscure (A Darkling Plain)
 Prix Seiun 2007, catégorie Meilleur roman étranger de l'année, pour Mécaniques fatales (Mortal Engines)
-(international) « Honour List » 2008[1] de l' IBBY pour Arthur, l'autre légende (Here Lies Arthur)
-Médaille Carnegie 2008[2] pour Arthur, l'autre légende (Here Lies Arthur)
-Finaliste Médaille Carnegie 2010[3] pour Fever Crumb, tome 1 : Fever Crumb
+(international) « Honour List » 2008 de l' IBBY pour Arthur, l'autre légende (Here Lies Arthur)
+Médaille Carnegie 2008 pour Arthur, l'autre légende (Here Lies Arthur)
+Finaliste Médaille Carnegie 2010 pour Fever Crumb, tome 1 : Fever Crumb
 Sélection Prix Locus du meilleur roman pour jeunes adultes 2011 pour Fever Crumb
 Sélection Prix Locus du meilleur roman pour jeunes adultes 2012 pour Scrivener's Moon
 Sélection Prix Andre-Norton 2016 pour Railhead 
 Sélection Prix Locus du meilleur roman pour jeunes adultes 2016 pour Railhead 
-Finaliste Médaille Carnegie 2017[4] pour Railhead
+Finaliste Médaille Carnegie 2017 pour Railhead
 Sélection Prix Locus du meilleur roman pour jeunes adultes 2018 pour Black Light Express</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Philip_Reeve</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Reeve</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>2018 : Mortal Engines, film américano-néo-zélandais de Christian Rivers</t>
         </is>
